--- a/toto_winning_loc.xlsx
+++ b/toto_winning_loc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18e6da6989cf1ec9/Documents/GitHub/INF2008-Machine-Learning-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sitsingaporetechedu-my.sharepoint.com/personal/2303052_sit_singaporetech_edu_sg/Documents/Documents/GitHub/INF2008-Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_13FD1C86947E080E62355476585DCE3A8746AC8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0424CA81-B981-4F43-9ECB-84F6727AA65B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_13FD1C86947E080E62355476585DCE3A8746AC8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73E36840-221A-4B79-961E-E043757D8F7D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="4125" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1739,13 +1739,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="35.08984375" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>147</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>172</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>174</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>175</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>177</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>179</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>189</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>192</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>193</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>194</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>195</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>197</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>198</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>199</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>201</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>202</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>203</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>204</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>205</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>206</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>207</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>208</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>210</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>211</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>212</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>214</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>216</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>217</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>218</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>221</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>222</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>223</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>224</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>225</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>226</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>227</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>228</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>230</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>234</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>236</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>240</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>244</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>248</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>253</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>254</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>255</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>265</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>266</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>267</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>268</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>269</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>270</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>271</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>273</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>274</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>275</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>276</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>277</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>278</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>279</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>280</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>281</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>282</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>283</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>284</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>285</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>286</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>287</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>288</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>289</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>290</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>291</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>292</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>293</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>294</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>295</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>296</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>297</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>298</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>300</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>301</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>302</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>303</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>305</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>306</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>307</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>308</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>309</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>310</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>311</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>312</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>313</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>314</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>315</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>316</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>317</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>318</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>319</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>320</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>321</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>322</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>323</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>324</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>325</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>326</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>327</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>328</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>329</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>330</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>331</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>332</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>333</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>334</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>335</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>336</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>337</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>338</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>339</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>340</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>341</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>343</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>344</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>345</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>346</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>347</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>348</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>349</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>350</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>351</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>352</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>353</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>354</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>355</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>356</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>357</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>358</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>359</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>360</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>361</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>362</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>363</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>364</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>365</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>366</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>367</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>368</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>369</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>370</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>371</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>372</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>373</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>374</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>375</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>376</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>377</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>379</v>
       </c>
@@ -5875,7 +5876,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>380</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>381</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>382</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>383</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>384</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>385</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>386</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>387</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>388</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>389</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>390</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>391</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>392</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>393</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>394</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>395</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>396</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>397</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>398</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>399</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>400</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>401</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>402</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>347</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>403</v>
       </c>
@@ -6225,7 +6226,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>404</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>405</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>406</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>407</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>408</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>410</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>411</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>412</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>413</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>414</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>415</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>416</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>417</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>418</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>419</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>420</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>421</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>422</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>423</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>424</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>425</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>426</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>427</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>428</v>
       </c>
@@ -6589,7 +6590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>429</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>430</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>431</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>432</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>433</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>434</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>435</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>436</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>437</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>438</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>439</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>440</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>441</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>442</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>443</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>444</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>445</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>341</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>446</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>447</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>448</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>449</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>450</v>
       </c>
